--- a/WebprogramozásBeadandóHtmlCssBootstrap másolata másolata.xlsx
+++ b/WebprogramozásBeadandóHtmlCssBootstrap másolata másolata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web programozás\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web programozás\Tesla model s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5005BBD-DD05-42CD-9B16-8A2C610700C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21759C1B-063F-456E-B021-C326389FE8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -1197,6 +1197,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,12 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8605,15 +8605,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
@@ -8622,12 +8622,12 @@
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
@@ -8636,12 +8636,12 @@
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
@@ -8650,7 +8650,7 @@
       <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
       <c r="F4" s="92"/>
@@ -8728,10 +8728,10 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="78">
         <f>SUM(Irányelvek!G:G)</f>
         <v>80</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="79">
         <v>20</v>
       </c>
@@ -8763,10 +8763,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="78">
         <v>20</v>
       </c>
@@ -8779,10 +8779,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="78">
         <v>40</v>
       </c>
@@ -8821,13 +8821,13 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="30" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D39,"=hamis",Irányelvek!F2:F39,"=Igaz")=0,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -8838,13 +8838,13 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="33">
         <f>SUM(Irányelvek!H2:H39)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="97" t="str">
@@ -8864,7 +8864,7 @@
       <c r="C18" s="96"/>
       <c r="D18" s="36">
         <f>IF(D17&gt;D11,VLOOKUP(SUM(Irányelvek!J2:J39),Ponthatárok!G2:H12,2,TRUE),0)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="97"/>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="80">
         <v>40</v>
       </c>
@@ -8891,21 +8891,21 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="33">
         <f>SUM(D17:D19)</f>
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="85" t="str">
+      <c r="F20" s="87" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Az önértékelés alapján Jeles (5)  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
@@ -9356,6 +9356,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Pt2r10NfCQvSDRx8qMjGYxYpEYBoOyIK56jWLg5u88pMtB0yZv+L45h/PZkvP5rgD0XQukcG0FY9SUv/PUWVng==" saltValue="OS0FMTO/1nXUT8EsxtE52w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="F10:H14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B1:H1"/>
@@ -9372,8 +9374,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="F10:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -9395,7 +9395,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -9456,7 +9456,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="38" t="b">
         <v>1</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="H2" s="39">
         <f>IF(D2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="40">
         <f>IF(E2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="J2" s="41">
         <f>IF(H2=I2,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="17" t="b">
         <v>1</v>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="H4" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="1"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="J4" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6"/>
     </row>
@@ -10276,7 +10276,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19" t="b">
         <v>1</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="H26" s="61">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I26" s="62">
         <f t="shared" si="1"/>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="J26" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
